--- a/ДЗ_6_14_05_2020.xlsx
+++ b/ДЗ_6_14_05_2020.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="125">
   <si>
     <t>passed</t>
   </si>
@@ -789,36 +789,6 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -850,6 +820,36 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1188,7 +1188,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1244,10 +1244,10 @@
   <dimension ref="A1:Z65"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="130" workbookViewId="0">
-      <pane xSplit="11" ySplit="7" topLeftCell="L41" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="11" ySplit="7" topLeftCell="L10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="E42" sqref="E42"/>
+      <selection pane="bottomRight" activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -1261,7 +1261,7 @@
     <col min="7" max="7" width="9.42578125" customWidth="1"/>
     <col min="8" max="8" width="3.7109375" customWidth="1"/>
     <col min="9" max="9" width="5.42578125" customWidth="1"/>
-    <col min="10" max="10" width="1.140625" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="19" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="2.140625" customWidth="1"/>
     <col min="12" max="12" width="15.85546875" customWidth="1"/>
     <col min="13" max="13" width="2.140625" customWidth="1"/>
@@ -1320,7 +1320,7 @@
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
     </row>
-    <row r="2" spans="1:26" hidden="1">
+    <row r="2" spans="1:26">
       <c r="A2" s="10"/>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
@@ -1365,7 +1365,7 @@
       <c r="Y2" s="2"/>
       <c r="Z2" s="2"/>
     </row>
-    <row r="3" spans="1:26" hidden="1">
+    <row r="3" spans="1:26">
       <c r="A3" s="10"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -1379,7 +1379,9 @@
         <v>7</v>
       </c>
       <c r="K3" s="9"/>
-      <c r="L3" s="20"/>
+      <c r="L3" s="20">
+        <v>43987</v>
+      </c>
       <c r="M3" s="9"/>
       <c r="N3" s="20"/>
       <c r="O3" s="9"/>
@@ -1395,7 +1397,7 @@
       <c r="Y3" s="2"/>
       <c r="Z3" s="2"/>
     </row>
-    <row r="4" spans="1:26" ht="13.5" hidden="1" customHeight="1">
+    <row r="4" spans="1:26" ht="13.5" customHeight="1">
       <c r="A4" s="10"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
@@ -1421,7 +1423,7 @@
       <c r="Y4" s="2"/>
       <c r="Z4" s="2"/>
     </row>
-    <row r="5" spans="1:26" ht="25.5" hidden="1" customHeight="1">
+    <row r="5" spans="1:26" ht="25.5" customHeight="1">
       <c r="A5" s="10"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -1463,43 +1465,43 @@
     </row>
     <row r="6" spans="1:26" ht="27" customHeight="1">
       <c r="A6" s="10"/>
-      <c r="B6" s="27" t="s">
+      <c r="B6" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="32" t="s">
+      <c r="C6" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="28" t="s">
+      <c r="D6" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="27" t="s">
+      <c r="E6" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="27"/>
-      <c r="G6" s="32" t="s">
+      <c r="F6" s="44"/>
+      <c r="G6" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="H6" s="29" t="s">
+      <c r="H6" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="I6" s="29" t="s">
+      <c r="I6" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="J6" s="35"/>
+      <c r="J6" s="40"/>
       <c r="K6" s="7"/>
-      <c r="L6" s="34" t="s">
+      <c r="L6" s="39" t="s">
         <v>21</v>
       </c>
       <c r="M6" s="9"/>
-      <c r="N6" s="34" t="s">
+      <c r="N6" s="39" t="s">
         <v>21</v>
       </c>
       <c r="O6" s="9"/>
-      <c r="P6" s="34"/>
+      <c r="P6" s="39"/>
       <c r="Q6" s="9"/>
-      <c r="R6" s="34"/>
+      <c r="R6" s="39"/>
       <c r="S6" s="9"/>
-      <c r="T6" s="34"/>
+      <c r="T6" s="39"/>
       <c r="U6" s="9"/>
       <c r="V6" s="2"/>
       <c r="W6" s="2"/>
@@ -1507,31 +1509,31 @@
       <c r="Y6" s="2"/>
       <c r="Z6" s="2"/>
     </row>
-    <row r="7" spans="1:26" ht="90" customHeight="1">
+    <row r="7" spans="1:26" ht="57" customHeight="1">
       <c r="A7" s="10"/>
-      <c r="B7" s="27"/>
-      <c r="C7" s="33"/>
-      <c r="D7" s="28"/>
+      <c r="B7" s="44"/>
+      <c r="C7" s="43"/>
+      <c r="D7" s="45"/>
       <c r="E7" s="22" t="s">
         <v>16</v>
       </c>
       <c r="F7" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="33"/>
-      <c r="H7" s="30"/>
-      <c r="I7" s="31"/>
-      <c r="J7" s="36"/>
+      <c r="G7" s="43"/>
+      <c r="H7" s="47"/>
+      <c r="I7" s="48"/>
+      <c r="J7" s="41"/>
       <c r="K7" s="7"/>
-      <c r="L7" s="34"/>
+      <c r="L7" s="39"/>
       <c r="M7" s="9"/>
-      <c r="N7" s="34"/>
+      <c r="N7" s="39"/>
       <c r="O7" s="9"/>
-      <c r="P7" s="34"/>
+      <c r="P7" s="39"/>
       <c r="Q7" s="9"/>
-      <c r="R7" s="34"/>
+      <c r="R7" s="39"/>
       <c r="S7" s="9"/>
-      <c r="T7" s="34"/>
+      <c r="T7" s="39"/>
       <c r="U7" s="9"/>
       <c r="V7" s="2"/>
       <c r="W7" s="2"/>
@@ -1539,43 +1541,45 @@
       <c r="Y7" s="2"/>
       <c r="Z7" s="2"/>
     </row>
-    <row r="8" spans="1:26" s="45" customFormat="1" ht="46.5" customHeight="1">
-      <c r="A8" s="37"/>
-      <c r="B8" s="38">
+    <row r="8" spans="1:26" s="35" customFormat="1" ht="46.5" customHeight="1">
+      <c r="A8" s="27"/>
+      <c r="B8" s="28">
         <v>15</v>
       </c>
-      <c r="C8" s="39" t="s">
+      <c r="C8" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="D8" s="38" t="s">
+      <c r="D8" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="E8" s="40" t="s">
+      <c r="E8" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="F8" s="38" t="s">
+      <c r="F8" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="G8" s="38"/>
-      <c r="H8" s="41"/>
-      <c r="I8" s="42"/>
-      <c r="J8" s="41"/>
-      <c r="K8" s="38"/>
-      <c r="L8" s="43"/>
-      <c r="M8" s="44"/>
-      <c r="N8" s="43"/>
-      <c r="O8" s="44"/>
-      <c r="P8" s="43"/>
-      <c r="Q8" s="44"/>
-      <c r="R8" s="43"/>
-      <c r="S8" s="44"/>
-      <c r="T8" s="43"/>
-      <c r="U8" s="44"/>
-      <c r="V8" s="44"/>
-      <c r="W8" s="44"/>
-      <c r="X8" s="44"/>
-      <c r="Y8" s="44"/>
-      <c r="Z8" s="44"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="31"/>
+      <c r="I8" s="32"/>
+      <c r="J8" s="31"/>
+      <c r="K8" s="28"/>
+      <c r="L8" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="M8" s="34"/>
+      <c r="N8" s="33"/>
+      <c r="O8" s="34"/>
+      <c r="P8" s="33"/>
+      <c r="Q8" s="34"/>
+      <c r="R8" s="33"/>
+      <c r="S8" s="34"/>
+      <c r="T8" s="33"/>
+      <c r="U8" s="34"/>
+      <c r="V8" s="34"/>
+      <c r="W8" s="34"/>
+      <c r="X8" s="34"/>
+      <c r="Y8" s="34"/>
+      <c r="Z8" s="34"/>
     </row>
     <row r="9" spans="1:26" ht="105">
       <c r="A9" s="10"/>
@@ -1583,10 +1587,10 @@
         <v>16</v>
       </c>
       <c r="C9" s="3"/>
-      <c r="D9" s="38" t="s">
+      <c r="D9" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="E9" s="40" t="s">
+      <c r="E9" s="30" t="s">
         <v>58</v>
       </c>
       <c r="F9" s="3" t="s">
@@ -1597,7 +1601,9 @@
       <c r="I9" s="19"/>
       <c r="J9" s="18"/>
       <c r="K9" s="8"/>
-      <c r="L9" s="5"/>
+      <c r="L9" s="5" t="s">
+        <v>0</v>
+      </c>
       <c r="M9" s="9"/>
       <c r="N9" s="5"/>
       <c r="O9" s="9"/>
@@ -1622,7 +1628,7 @@
       <c r="D10" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="E10" s="40" t="s">
+      <c r="E10" s="30" t="s">
         <v>61</v>
       </c>
       <c r="F10" s="3" t="s">
@@ -1633,7 +1639,9 @@
       <c r="I10" s="19"/>
       <c r="J10" s="18"/>
       <c r="K10" s="8"/>
-      <c r="L10" s="5"/>
+      <c r="L10" s="5" t="s">
+        <v>0</v>
+      </c>
       <c r="M10" s="9"/>
       <c r="N10" s="5"/>
       <c r="O10" s="9"/>
@@ -1655,13 +1663,13 @@
         <v>18</v>
       </c>
       <c r="C11" s="3"/>
-      <c r="D11" s="38" t="s">
+      <c r="D11" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="E11" s="40" t="s">
+      <c r="E11" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="F11" s="38" t="s">
+      <c r="F11" s="28" t="s">
         <v>64</v>
       </c>
       <c r="G11" s="3"/>
@@ -1669,7 +1677,9 @@
       <c r="I11" s="19"/>
       <c r="J11" s="18"/>
       <c r="K11" s="8"/>
-      <c r="L11" s="5"/>
+      <c r="L11" s="5" t="s">
+        <v>1</v>
+      </c>
       <c r="M11" s="9"/>
       <c r="N11" s="5"/>
       <c r="O11" s="9"/>
@@ -1694,7 +1704,7 @@
       <c r="D12" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="E12" s="40" t="s">
+      <c r="E12" s="30" t="s">
         <v>66</v>
       </c>
       <c r="F12" s="3" t="s">
@@ -1705,7 +1715,9 @@
       <c r="I12" s="19"/>
       <c r="J12" s="18"/>
       <c r="K12" s="8"/>
-      <c r="L12" s="5"/>
+      <c r="L12" s="5" t="s">
+        <v>1</v>
+      </c>
       <c r="M12" s="9"/>
       <c r="N12" s="5"/>
       <c r="O12" s="9"/>
@@ -1730,7 +1742,7 @@
       <c r="D13" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E13" s="40" t="s">
+      <c r="E13" s="30" t="s">
         <v>69</v>
       </c>
       <c r="F13" s="3" t="s">
@@ -1763,13 +1775,13 @@
         <v>21</v>
       </c>
       <c r="C14" s="3"/>
-      <c r="D14" s="38" t="s">
+      <c r="D14" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="E14" s="40" t="s">
+      <c r="E14" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="F14" s="38" t="s">
+      <c r="F14" s="28" t="s">
         <v>72</v>
       </c>
       <c r="G14" s="3"/>
@@ -1802,7 +1814,7 @@
       <c r="D15" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="E15" s="40" t="s">
+      <c r="E15" s="30" t="s">
         <v>74</v>
       </c>
       <c r="F15" s="3" t="s">
@@ -1838,7 +1850,7 @@
       <c r="D16" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="E16" s="40" t="s">
+      <c r="E16" s="30" t="s">
         <v>76</v>
       </c>
       <c r="F16" s="3" t="s">
@@ -1846,7 +1858,7 @@
       </c>
       <c r="G16" s="3"/>
       <c r="H16" s="18"/>
-      <c r="I16" s="46"/>
+      <c r="I16" s="36"/>
       <c r="J16" s="18"/>
       <c r="K16" s="8"/>
       <c r="L16" s="5"/>
@@ -1874,7 +1886,7 @@
       <c r="D17" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="E17" s="40" t="s">
+      <c r="E17" s="30" t="s">
         <v>79</v>
       </c>
       <c r="F17" s="3" t="s">
@@ -1910,7 +1922,7 @@
       <c r="D18" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="E18" s="40" t="s">
+      <c r="E18" s="30" t="s">
         <v>82</v>
       </c>
       <c r="F18" s="3" t="s">
@@ -1946,7 +1958,7 @@
       <c r="D19" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="E19" s="40" t="s">
+      <c r="E19" s="30" t="s">
         <v>79</v>
       </c>
       <c r="F19" s="3" t="s">
@@ -1982,10 +1994,10 @@
       <c r="D20" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="E20" s="47" t="s">
+      <c r="E20" s="37" t="s">
         <v>85</v>
       </c>
-      <c r="F20" s="38" t="s">
+      <c r="F20" s="28" t="s">
         <v>86</v>
       </c>
       <c r="G20" s="3"/>
@@ -2018,7 +2030,7 @@
       <c r="D21" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="E21" s="47" t="s">
+      <c r="E21" s="37" t="s">
         <v>88</v>
       </c>
       <c r="F21" s="3" t="s">
@@ -2054,7 +2066,7 @@
       <c r="D22" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="E22" s="47" t="s">
+      <c r="E22" s="37" t="s">
         <v>90</v>
       </c>
       <c r="F22" s="3" t="s">
@@ -2090,7 +2102,7 @@
       <c r="D23" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="E23" s="47" t="s">
+      <c r="E23" s="37" t="s">
         <v>92</v>
       </c>
       <c r="F23" s="3" t="s">
@@ -2124,7 +2136,7 @@
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
-      <c r="E24" s="48" t="s">
+      <c r="E24" s="38" t="s">
         <v>93</v>
       </c>
       <c r="F24" s="3"/>
@@ -3392,6 +3404,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="C6:C7"/>
     <mergeCell ref="T6:T7"/>
     <mergeCell ref="J6:J7"/>
     <mergeCell ref="G6:G7"/>
@@ -3399,12 +3417,6 @@
     <mergeCell ref="L6:L7"/>
     <mergeCell ref="N6:N7"/>
     <mergeCell ref="P6:P7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="C6:C7"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="L8:L46 R8:R46 P8:P46 T8:T46 N8:N46">
